--- a/src/main/resources/excel/adr.xlsx
+++ b/src/main/resources/excel/adr.xlsx
@@ -5,19 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Desktop\Для расчетов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\Desktop\calculating\generalModuleCalculating\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Лист1!$A$3:$A$1147</definedName>
-    <definedName name="_xlchart.1" hidden="1">Лист1!$B$3:$B$1147</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +109,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Адр</a:t>
+              <a:t>Распределение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> а</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>др</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7255,6 +7259,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Распред</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> по знакам</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -10931,6 +10964,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Легаси</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> функция. Она плохо описывает минусы</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -14592,6 +14655,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Полученная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> функция. Плохо описывает только лучших игроков</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -20502,16 +20594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20533,15 +20625,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20828,8 +20920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I1146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="I375" sqref="I375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/adr.xlsx
+++ b/src/main/resources/excel/adr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20920,8 +20920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I1146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="I375" sqref="I375"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
